--- a/Antoine_Suivi_SoftSkill.xlsx
+++ b/Antoine_Suivi_SoftSkill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t xml:space="preserve">Suivi de l'acquisition des attitudes et comportements professionnels attendus</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">Esprit de sécurité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respecter regle covid</t>
   </si>
   <si>
     <t xml:space="preserve">Respecter le matériel et l’environnement technique</t>
@@ -537,12 +540,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.1"/>
@@ -878,15 +881,17 @@
       <c r="F20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -895,16 +900,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -913,13 +918,13 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -931,7 +936,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>31</v>
@@ -939,7 +944,7 @@
     </row>
     <row r="24" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>49</v>
@@ -951,7 +956,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>31</v>
@@ -960,7 +965,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="n">
